--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2006 (P06).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2006 (P06).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,210 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Giant Growth</t>
+          <t>('Giant Growth', ['{G}', 'Instant', 'Target creature gets +3/+3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{G}</t>
+          <t>('Hinder', ['{1}{U}{U}', 'Instant', 'Counter target spell. If that spell is countered this way, put that card on the top or bottom of its owner’s library instead of into that player’s graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Hypnotic Specter', ['{1}{B}{B}', 'Creature — Specter', 'Flying', 'Whenever Hypnotic Specter deals damage to an opponent, that player discards a card at random.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Target creature gets +3/+3 until end of turn.</t>
+          <t>('Lightning Helix', ['{R}{W}', 'Instant', 'Lightning Helix deals 3 damage to any target and you gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hinder</t>
+          <t>('Putrefy', ['{1}{B}{G}', 'Instant', 'Destroy target artifact or creature. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{1}{U}{U}</t>
+          <t>('Pyroclasm', ['{1}{R}', 'Sorcery', 'Pyroclasm deals 2 damage to each creature.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Counter target spell. If that spell is countered this way, put that card on the top or bottom of its owner’s library instead of into that player’s graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hypnotic Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Creature — Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Whenever Hypnotic Specter deals damage to an opponent, that player discards a card at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lightning Helix</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{R}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lightning Helix deals 3 damage to any target and you gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Putrefy</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Destroy target artifact or creature. It can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Pyroclasm</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Pyroclasm deals 2 damage to each creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Zombify</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{3}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Return target creature card from your graveyard to the battlefield.</t>
+          <t>('Zombify', ['{3}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
